--- a/Comment/input.xlsx
+++ b/Comment/input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2121,11 +2121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="E1003" sqref="E1003"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,7 +2150,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4937640</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4937640</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4149345</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4937640</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4937640</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4937640</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4937640</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4149345</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4149345</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4937640</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4149345</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4937640</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4937640</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4937640</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4937640</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4937640</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4149345</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4149345</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4937640</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4937640</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4149345</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4937640</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4149345</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4149345</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4149345</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4937640</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4149345</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4149345</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4937640</v>
       </c>
@@ -2661,7 +2660,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4937640</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4149345</v>
       </c>
@@ -2695,7 +2694,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4937640</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4149345</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4149345</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4149345</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4149345</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4149345</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4937640</v>
       </c>
@@ -2814,7 +2813,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4149345</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4149345</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4937640</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4937640</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4937640</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4149345</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4937640</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4937640</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4149345</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4149345</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4937640</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4937640</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4149345</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4937640</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4149345</v>
       </c>
@@ -3086,7 +3085,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4937640</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4149345</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4937640</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4149345</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4149345</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4149345</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4937640</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4149345</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4937640</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4937640</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4149345</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4937640</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4149345</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4149345</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4937640</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4149345</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4149345</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4937640</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4937640</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4149345</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4149345</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4149345</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4149345</v>
       </c>
@@ -3494,7 +3493,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4937640</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4937640</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4149345</v>
       </c>
@@ -3545,7 +3544,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4149345</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4937640</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4149345</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4149345</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4149345</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4149345</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4149345</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4937640</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4937640</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4937640</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4149345</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4149345</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4937640</v>
       </c>
@@ -3783,7 +3782,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4937640</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4149345</v>
       </c>
@@ -3817,7 +3816,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4149345</v>
       </c>
@@ -3834,7 +3833,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4937640</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4149345</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4149345</v>
       </c>
@@ -3885,7 +3884,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4149345</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4149345</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4149345</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4149345</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4149345</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4149345</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4149345</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4937640</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4937640</v>
       </c>
@@ -4038,7 +4037,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4149345</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4149345</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4937640</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4149345</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4937640</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4937640</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4937640</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4937640</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4149345</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4149345</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4149345</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4149345</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4149345</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4149345</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4937640</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4149345</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4937640</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4149345</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4149345</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4149345</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4149345</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4149345</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4149345</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4937640</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4937640</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4149345</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4937640</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4149345</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4149345</v>
       </c>
@@ -4565,7 +4564,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4149345</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4937640</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4149345</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4149345</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4937640</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4937640</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4937640</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4149345</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4937640</v>
       </c>
@@ -4718,7 +4717,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4149345</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4937640</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4937640</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>4937640</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4937640</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4149345</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4937640</v>
       </c>
@@ -4837,7 +4836,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4149345</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4149345</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4149345</v>
       </c>
@@ -4888,7 +4887,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>4937640</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>4149345</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4149345</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4937640</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4937640</v>
       </c>
@@ -4973,7 +4972,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4937640</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4937640</v>
       </c>
@@ -5007,7 +5006,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4149345</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4937640</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4149345</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4149345</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4937640</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4937640</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4937640</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>4149345</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>4937640</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>4149345</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4149345</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>4937640</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>4937640</v>
       </c>
@@ -5245,7 +5244,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>4937640</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4149345</v>
       </c>
@@ -5279,7 +5278,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>4149345</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>4149345</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>4149345</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4937640</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>4937640</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4149345</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>4149345</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4149345</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4937640</v>
       </c>
@@ -5432,7 +5431,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4937640</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4937640</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4149345</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4937640</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4937640</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4937640</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4937640</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>4937640</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4149345</v>
       </c>
@@ -5602,7 +5601,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4937640</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4149345</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>4149345</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4149345</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>4149345</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4937640</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4937640</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4937640</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4149345</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4149345</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4937640</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4149345</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4937640</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4937640</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4937640</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4937640</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4937640</v>
       </c>
@@ -5908,7 +5907,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4149345</v>
       </c>
@@ -5925,7 +5924,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4149345</v>
       </c>
@@ -5942,7 +5941,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4937640</v>
       </c>
@@ -5959,7 +5958,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4149345</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4937640</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4937640</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4149345</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4937640</v>
       </c>
@@ -6044,7 +6043,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4937640</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4149345</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4149345</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4937640</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4149345</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4149345</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4149345</v>
       </c>
@@ -6163,7 +6162,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4149345</v>
       </c>
@@ -6180,7 +6179,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4149345</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4149345</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4149345</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4149345</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4149345</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4937640</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4149345</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4937640</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4149345</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4149345</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4149345</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4937640</v>
       </c>
@@ -6401,7 +6400,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4149345</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4149345</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4149345</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4937640</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4149345</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4149345</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4149345</v>
       </c>
@@ -6520,7 +6519,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4149345</v>
       </c>
@@ -6537,7 +6536,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4149345</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4149345</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4149345</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4937640</v>
       </c>
@@ -6605,7 +6604,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4937640</v>
       </c>
@@ -6622,7 +6621,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4937640</v>
       </c>
@@ -6639,7 +6638,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4937640</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4937640</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4937640</v>
       </c>
@@ -6690,7 +6689,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4149345</v>
       </c>
@@ -6707,7 +6706,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4149345</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4149345</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4149345</v>
       </c>
@@ -6758,7 +6757,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4149345</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4937640</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>4149345</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4149345</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4937640</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4937640</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4937640</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>4937640</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>4937640</v>
       </c>
@@ -6928,7 +6927,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>4937640</v>
       </c>
@@ -6945,7 +6944,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4149345</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4937640</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>4149345</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4149345</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>4149345</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4149345</v>
       </c>
@@ -7081,7 +7080,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>4149345</v>
       </c>
@@ -7098,7 +7097,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4937640</v>
       </c>
@@ -7115,7 +7114,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4149345</v>
       </c>
@@ -7132,7 +7131,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4937640</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>4937640</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4149345</v>
       </c>
@@ -7183,7 +7182,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>4149345</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>4149345</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>4149345</v>
       </c>
@@ -7234,7 +7233,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4149345</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4149345</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>4149345</v>
       </c>
@@ -7285,7 +7284,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4937640</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>4937640</v>
       </c>
@@ -7319,7 +7318,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>4149345</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>4149345</v>
       </c>
@@ -7353,7 +7352,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>4149345</v>
       </c>
@@ -7370,7 +7369,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>4149345</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>4937640</v>
       </c>
@@ -7404,7 +7403,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4937640</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>4937640</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4149345</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>4149345</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4937640</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>4149345</v>
       </c>
@@ -7506,7 +7505,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>4149345</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>4937640</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>4937640</v>
       </c>
@@ -7557,7 +7556,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>4149345</v>
       </c>
@@ -7574,7 +7573,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>4149345</v>
       </c>
@@ -7591,7 +7590,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>4149345</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4149345</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4937640</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>4937640</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4937640</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>4937640</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>4937640</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>4149345</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>4149345</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>4937640</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>4937640</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>4937640</v>
       </c>
@@ -7795,7 +7794,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>4149345</v>
       </c>
@@ -7812,7 +7811,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>4149345</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>4937640</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>4149345</v>
       </c>
@@ -7863,7 +7862,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>4149345</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>4149345</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>4937640</v>
       </c>
@@ -7931,7 +7930,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>4149345</v>
       </c>
@@ -7948,7 +7947,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>4149345</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>4149345</v>
       </c>
@@ -7982,7 +7981,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>4937640</v>
       </c>
@@ -7999,7 +7998,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>4937640</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>4149345</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>4149345</v>
       </c>
@@ -8050,7 +8049,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>4937640</v>
       </c>
@@ -8084,7 +8083,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>4149345</v>
       </c>
@@ -8101,7 +8100,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>4937640</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>4937640</v>
       </c>
@@ -8135,7 +8134,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>4149345</v>
       </c>
@@ -8152,7 +8151,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>4937640</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>4149345</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4149345</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>4937640</v>
       </c>
@@ -8220,7 +8219,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>4937640</v>
       </c>
@@ -8237,7 +8236,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4149345</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>4937640</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>4937640</v>
       </c>
@@ -8288,7 +8287,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>4937640</v>
       </c>
@@ -8322,7 +8321,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>4937640</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>4937640</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>4937640</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>4937640</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>4149345</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>4937640</v>
       </c>
@@ -8424,7 +8423,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>4149345</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>4937640</v>
       </c>
@@ -8458,7 +8457,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>4149345</v>
       </c>
@@ -8475,7 +8474,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>4149345</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>4937640</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>4937640</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>4937640</v>
       </c>
@@ -8543,7 +8542,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>4149345</v>
       </c>
@@ -8560,7 +8559,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>4149345</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>4149345</v>
       </c>
@@ -8594,7 +8593,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>4149345</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>4149345</v>
       </c>
@@ -8628,7 +8627,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>4149345</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>4149345</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>4937640</v>
       </c>
@@ -8679,7 +8678,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>4937640</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>4937640</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>4149345</v>
       </c>
@@ -8730,7 +8729,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4937640</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>4149345</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>4937640</v>
       </c>
@@ -8781,7 +8780,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>4937640</v>
       </c>
@@ -8798,7 +8797,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>4149345</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>4149345</v>
       </c>
@@ -8832,7 +8831,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>4149345</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>4149345</v>
       </c>
@@ -8883,7 +8882,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>4937640</v>
       </c>
@@ -8900,7 +8899,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>4937640</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>4937640</v>
       </c>
@@ -8934,7 +8933,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>4937640</v>
       </c>
@@ -8951,7 +8950,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>4937640</v>
       </c>
@@ -8968,7 +8967,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>4937640</v>
       </c>
@@ -8985,7 +8984,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>4937640</v>
       </c>
@@ -9002,7 +9001,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>4937640</v>
       </c>
@@ -9019,7 +9018,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>4937640</v>
       </c>
@@ -9036,7 +9035,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>4937640</v>
       </c>
@@ -9070,7 +9069,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>4937640</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4149345</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>4149345</v>
       </c>
@@ -9121,7 +9120,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>4149345</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4937640</v>
       </c>
@@ -9155,7 +9154,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>4149345</v>
       </c>
@@ -9172,7 +9171,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4937640</v>
       </c>
@@ -9189,7 +9188,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>4937640</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>4937640</v>
       </c>
@@ -9223,7 +9222,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>4149345</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>4149345</v>
       </c>
@@ -9257,7 +9256,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>4149345</v>
       </c>
@@ -9274,7 +9273,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>4149345</v>
       </c>
@@ -9291,7 +9290,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4149345</v>
       </c>
@@ -9308,7 +9307,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>4937640</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>4937640</v>
       </c>
@@ -9376,7 +9375,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>4937640</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>4937640</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>4149345</v>
       </c>
@@ -9444,7 +9443,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>4937640</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>4149345</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4937640</v>
       </c>
@@ -9495,7 +9494,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>4937640</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>4937640</v>
       </c>
@@ -9529,7 +9528,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>4937640</v>
       </c>
@@ -9546,7 +9545,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>4937640</v>
       </c>
@@ -9563,7 +9562,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>4937640</v>
       </c>
@@ -9580,7 +9579,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>4937640</v>
       </c>
@@ -9597,7 +9596,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>4937640</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>4149345</v>
       </c>
@@ -9648,7 +9647,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>4937640</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4149345</v>
       </c>
@@ -9682,7 +9681,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>4937640</v>
       </c>
@@ -9716,7 +9715,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>4937640</v>
       </c>
@@ -9733,7 +9732,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>4937640</v>
       </c>
@@ -9750,7 +9749,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>4149345</v>
       </c>
@@ -9767,7 +9766,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>4937640</v>
       </c>
@@ -9784,7 +9783,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>4937640</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>4937640</v>
       </c>
@@ -9818,7 +9817,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>4149345</v>
       </c>
@@ -9835,7 +9834,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>4149345</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>4937640</v>
       </c>
@@ -9869,7 +9868,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>4149345</v>
       </c>
@@ -9886,7 +9885,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>4937640</v>
       </c>
@@ -9903,7 +9902,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>4149345</v>
       </c>
@@ -9920,7 +9919,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>4937640</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>4149345</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>4937640</v>
       </c>
@@ -9971,7 +9970,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>4937640</v>
       </c>
@@ -9988,7 +9987,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>4937640</v>
       </c>
@@ -10005,7 +10004,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>4937640</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>4937640</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>4149345</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>4149345</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>4149345</v>
       </c>
@@ -10107,7 +10106,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>4149345</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>4149345</v>
       </c>
@@ -10141,7 +10140,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>4937640</v>
       </c>
@@ -10158,7 +10157,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4149345</v>
       </c>
@@ -10175,7 +10174,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>4149345</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>4937640</v>
       </c>
@@ -10209,7 +10208,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>4937640</v>
       </c>
@@ -10226,7 +10225,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>4149345</v>
       </c>
@@ -10243,7 +10242,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>4149345</v>
       </c>
@@ -10260,7 +10259,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>4937640</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>4149345</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>4149345</v>
       </c>
@@ -10311,7 +10310,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>4149345</v>
       </c>
@@ -10328,7 +10327,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>4149345</v>
       </c>
@@ -10345,7 +10344,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>4937640</v>
       </c>
@@ -10362,7 +10361,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>4149345</v>
       </c>
@@ -10379,7 +10378,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>4149345</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>4149345</v>
       </c>
@@ -10413,7 +10412,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>4149345</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>4937640</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>4149345</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>4937640</v>
       </c>
@@ -10481,7 +10480,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>4149345</v>
       </c>
@@ -10498,7 +10497,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>4937640</v>
       </c>
@@ -10515,7 +10514,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>4937640</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>4149345</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>4149345</v>
       </c>
@@ -10566,7 +10565,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>4149345</v>
       </c>
@@ -10583,7 +10582,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>4149345</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>4149345</v>
       </c>
@@ -10617,7 +10616,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>4149345</v>
       </c>
@@ -10634,7 +10633,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>4149345</v>
       </c>
@@ -10651,7 +10650,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>4149345</v>
       </c>
@@ -10668,7 +10667,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>4937640</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>4149345</v>
       </c>
@@ -10719,7 +10718,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>4149345</v>
       </c>
@@ -10736,7 +10735,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>4937640</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>4937640</v>
       </c>
@@ -10770,7 +10769,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>4149345</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>4937640</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>4149345</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>4149345</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>4149345</v>
       </c>
@@ -10872,7 +10871,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>4937640</v>
       </c>
@@ -10889,7 +10888,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>4149345</v>
       </c>
@@ -10906,7 +10905,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>4149345</v>
       </c>
@@ -10923,7 +10922,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>4149345</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>4937640</v>
       </c>
@@ -10957,7 +10956,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>4937640</v>
       </c>
@@ -10991,7 +10990,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>4937640</v>
       </c>
@@ -11008,7 +11007,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>4937640</v>
       </c>
@@ -11025,7 +11024,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>4937640</v>
       </c>
@@ -11042,7 +11041,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>4937640</v>
       </c>
@@ -11059,7 +11058,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>4937640</v>
       </c>
@@ -11076,7 +11075,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>4149345</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>4149345</v>
       </c>
@@ -11110,7 +11109,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>4937640</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>4149345</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>4149345</v>
       </c>
@@ -11161,7 +11160,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>4149345</v>
       </c>
@@ -11178,7 +11177,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>4937640</v>
       </c>
@@ -11195,7 +11194,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>4149345</v>
       </c>
@@ -11212,7 +11211,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>4937640</v>
       </c>
@@ -11229,7 +11228,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>4937640</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>4149345</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>4149345</v>
       </c>
@@ -11280,7 +11279,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>4937640</v>
       </c>
@@ -11297,7 +11296,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>4149345</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>4149345</v>
       </c>
@@ -11331,7 +11330,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>4937640</v>
       </c>
@@ -11348,7 +11347,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>4937640</v>
       </c>
@@ -11365,7 +11364,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>4937640</v>
       </c>
@@ -11382,7 +11381,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>4937640</v>
       </c>
@@ -11399,7 +11398,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>4937640</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>4937640</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>4149345</v>
       </c>
@@ -11450,7 +11449,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>4937640</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>4149345</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>4937640</v>
       </c>
@@ -11535,7 +11534,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>4149345</v>
       </c>
@@ -11552,7 +11551,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>4149345</v>
       </c>
@@ -11569,7 +11568,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>4937640</v>
       </c>
@@ -11586,7 +11585,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>4937640</v>
       </c>
@@ -11603,7 +11602,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>4149345</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>4937640</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>4937640</v>
       </c>
@@ -11654,7 +11653,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>4937640</v>
       </c>
@@ -11671,7 +11670,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>4149345</v>
       </c>
@@ -11705,7 +11704,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>4149345</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>4937640</v>
       </c>
@@ -11739,7 +11738,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>4149345</v>
       </c>
@@ -11756,7 +11755,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>4937640</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>4937640</v>
       </c>
@@ -11790,7 +11789,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>4937640</v>
       </c>
@@ -11807,7 +11806,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>4937640</v>
       </c>
@@ -11824,7 +11823,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>4937640</v>
       </c>
@@ -11841,7 +11840,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>4149345</v>
       </c>
@@ -11858,7 +11857,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>4149345</v>
       </c>
@@ -11875,7 +11874,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>4149345</v>
       </c>
@@ -11892,7 +11891,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>4149345</v>
       </c>
@@ -11909,7 +11908,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>4937640</v>
       </c>
@@ -11926,7 +11925,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>4149345</v>
       </c>
@@ -11943,7 +11942,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>4149345</v>
       </c>
@@ -11960,7 +11959,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>4937640</v>
       </c>
@@ -11977,7 +11976,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>4149345</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>4937640</v>
       </c>
@@ -12011,7 +12010,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>4937640</v>
       </c>
@@ -12028,7 +12027,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>4937640</v>
       </c>
@@ -12045,7 +12044,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>4149345</v>
       </c>
@@ -12062,7 +12061,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>4149345</v>
       </c>
@@ -12079,7 +12078,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>4937640</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>4937640</v>
       </c>
@@ -12113,7 +12112,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>4149345</v>
       </c>
@@ -12130,7 +12129,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>4937640</v>
       </c>
@@ -12147,7 +12146,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>4937640</v>
       </c>
@@ -12181,7 +12180,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>4937640</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>4937640</v>
       </c>
@@ -12215,7 +12214,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>4937640</v>
       </c>
@@ -12232,7 +12231,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>4149345</v>
       </c>
@@ -12249,7 +12248,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>4149345</v>
       </c>
@@ -12266,7 +12265,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>4149345</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>4937640</v>
       </c>
@@ -12317,7 +12316,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>4149345</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>4937640</v>
       </c>
@@ -12351,7 +12350,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>4937640</v>
       </c>
@@ -12368,7 +12367,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>4149345</v>
       </c>
@@ -12385,7 +12384,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>4937640</v>
       </c>
@@ -12402,7 +12401,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>4937640</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>4937640</v>
       </c>
@@ -12436,7 +12435,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>4937640</v>
       </c>
@@ -12453,7 +12452,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>4149345</v>
       </c>
@@ -12470,7 +12469,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>4149345</v>
       </c>
@@ -12487,7 +12486,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>4937640</v>
       </c>
@@ -12504,7 +12503,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>4149345</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>4149345</v>
       </c>
@@ -12538,7 +12537,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>4937640</v>
       </c>
@@ -12555,7 +12554,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>4937640</v>
       </c>
@@ -12572,7 +12571,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>4149345</v>
       </c>
@@ -12606,7 +12605,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>4149345</v>
       </c>
@@ -12623,7 +12622,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>4149345</v>
       </c>
@@ -12640,7 +12639,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>4149345</v>
       </c>
@@ -12657,7 +12656,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>4937640</v>
       </c>
@@ -12674,7 +12673,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>4149345</v>
       </c>
@@ -12691,7 +12690,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>4149345</v>
       </c>
@@ -12708,7 +12707,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>4937640</v>
       </c>
@@ -12725,7 +12724,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>4937640</v>
       </c>
@@ -12742,7 +12741,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>4149345</v>
       </c>
@@ -12759,7 +12758,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>4149345</v>
       </c>
@@ -12776,7 +12775,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>4149345</v>
       </c>
@@ -12793,7 +12792,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>4937640</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>4149345</v>
       </c>
@@ -12827,7 +12826,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>4937640</v>
       </c>
@@ -12844,7 +12843,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>4937640</v>
       </c>
@@ -12861,7 +12860,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>4149345</v>
       </c>
@@ -12878,7 +12877,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>4937640</v>
       </c>
@@ -12895,7 +12894,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>4149345</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>4937640</v>
       </c>
@@ -12929,7 +12928,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>4149345</v>
       </c>
@@ -12946,7 +12945,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>4937640</v>
       </c>
@@ -12963,7 +12962,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>4937640</v>
       </c>
@@ -12980,7 +12979,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>4149345</v>
       </c>
@@ -12997,7 +12996,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>4149345</v>
       </c>
@@ -13014,7 +13013,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>4149345</v>
       </c>
@@ -13031,7 +13030,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>4149345</v>
       </c>
@@ -13048,7 +13047,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>4149345</v>
       </c>
@@ -13065,7 +13064,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>4937640</v>
       </c>
@@ -13082,7 +13081,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>4149345</v>
       </c>
@@ -13116,7 +13115,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>4149345</v>
       </c>
@@ -13133,7 +13132,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>4937640</v>
       </c>
@@ -13150,7 +13149,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>4149345</v>
       </c>
@@ -13167,7 +13166,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>4149345</v>
       </c>
@@ -13184,7 +13183,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>4937640</v>
       </c>
@@ -13201,7 +13200,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>4149345</v>
       </c>
@@ -13218,7 +13217,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>4937640</v>
       </c>
@@ -13235,7 +13234,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>4149345</v>
       </c>
@@ -13252,7 +13251,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>4937640</v>
       </c>
@@ -13269,7 +13268,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>4937640</v>
       </c>
@@ -13286,7 +13285,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>4149345</v>
       </c>
@@ -13303,7 +13302,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>4937640</v>
       </c>
@@ -13320,7 +13319,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>4149345</v>
       </c>
@@ -13337,7 +13336,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>4149345</v>
       </c>
@@ -13354,7 +13353,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>4937640</v>
       </c>
@@ -13371,7 +13370,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>4149345</v>
       </c>
@@ -13388,7 +13387,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>4149345</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>4937640</v>
       </c>
@@ -13422,7 +13421,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>4149345</v>
       </c>
@@ -13439,7 +13438,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>4937640</v>
       </c>
@@ -13456,7 +13455,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>4937640</v>
       </c>
@@ -13473,7 +13472,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>4937640</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>4149345</v>
       </c>
@@ -13507,7 +13506,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>4937640</v>
       </c>
@@ -13524,7 +13523,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>4937640</v>
       </c>
@@ -13541,7 +13540,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>4937640</v>
       </c>
@@ -13558,7 +13557,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>4149345</v>
       </c>
@@ -13575,7 +13574,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>4937640</v>
       </c>
@@ -13592,7 +13591,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>4937640</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>4937640</v>
       </c>
@@ -13626,7 +13625,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>4937640</v>
       </c>
@@ -13643,7 +13642,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>4149345</v>
       </c>
@@ -13660,7 +13659,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>4149345</v>
       </c>
@@ -13677,7 +13676,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>4937640</v>
       </c>
@@ -13694,7 +13693,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>4937640</v>
       </c>
@@ -13711,7 +13710,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>4937640</v>
       </c>
@@ -13728,7 +13727,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>4149345</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>4937640</v>
       </c>
@@ -13779,7 +13778,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>4149345</v>
       </c>
@@ -13796,7 +13795,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>4937640</v>
       </c>
@@ -13813,7 +13812,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>4149345</v>
       </c>
@@ -13830,7 +13829,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>4937640</v>
       </c>
@@ -13847,7 +13846,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>4149345</v>
       </c>
@@ -13864,7 +13863,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>4937640</v>
       </c>
@@ -13881,7 +13880,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>4937640</v>
       </c>
@@ -13898,7 +13897,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>4149345</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>4937640</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>4937640</v>
       </c>
@@ -13949,7 +13948,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>4937640</v>
       </c>
@@ -13966,7 +13965,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>4149345</v>
       </c>
@@ -13983,7 +13982,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>4937640</v>
       </c>
@@ -14000,7 +13999,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>4149345</v>
       </c>
@@ -14017,7 +14016,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>4149345</v>
       </c>
@@ -14034,7 +14033,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>4149345</v>
       </c>
@@ -14068,7 +14067,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>4937640</v>
       </c>
@@ -14085,7 +14084,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>4937640</v>
       </c>
@@ -14102,7 +14101,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>4937640</v>
       </c>
@@ -14119,7 +14118,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>4149345</v>
       </c>
@@ -14136,7 +14135,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>4149345</v>
       </c>
@@ -14153,7 +14152,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>4937640</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>4937640</v>
       </c>
@@ -14187,7 +14186,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>4149345</v>
       </c>
@@ -14204,7 +14203,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>4149345</v>
       </c>
@@ -14221,7 +14220,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>4937640</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>4149345</v>
       </c>
@@ -14255,7 +14254,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>4937640</v>
       </c>
@@ -14272,7 +14271,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>4937640</v>
       </c>
@@ -14289,7 +14288,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>4937640</v>
       </c>
@@ -14306,7 +14305,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>4149345</v>
       </c>
@@ -14323,7 +14322,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>4149345</v>
       </c>
@@ -14340,7 +14339,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>4937640</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>4149345</v>
       </c>
@@ -14391,7 +14390,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>4937640</v>
       </c>
@@ -14425,7 +14424,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>4149345</v>
       </c>
@@ -14442,7 +14441,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>4937640</v>
       </c>
@@ -14459,7 +14458,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>4149345</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>4149345</v>
       </c>
@@ -14493,7 +14492,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>4937640</v>
       </c>
@@ -14510,7 +14509,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>4149345</v>
       </c>
@@ -14527,7 +14526,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>4937640</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>4937640</v>
       </c>
@@ -14561,7 +14560,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>4149345</v>
       </c>
@@ -14578,7 +14577,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>4937640</v>
       </c>
@@ -14595,7 +14594,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>4149345</v>
       </c>
@@ -14612,7 +14611,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>4937640</v>
       </c>
@@ -14629,7 +14628,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>4149345</v>
       </c>
@@ -14646,7 +14645,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>4937640</v>
       </c>
@@ -14663,7 +14662,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>4937640</v>
       </c>
@@ -14680,7 +14679,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>4937640</v>
       </c>
@@ -14697,7 +14696,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>4149345</v>
       </c>
@@ -14714,7 +14713,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>4937640</v>
       </c>
@@ -14731,7 +14730,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>4937640</v>
       </c>
@@ -14748,7 +14747,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>4937640</v>
       </c>
@@ -14765,7 +14764,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>4149345</v>
       </c>
@@ -14782,7 +14781,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>4149345</v>
       </c>
@@ -14799,7 +14798,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>4937640</v>
       </c>
@@ -14816,7 +14815,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>4937640</v>
       </c>
@@ -14833,7 +14832,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>4149345</v>
       </c>
@@ -14850,7 +14849,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>4937640</v>
       </c>
@@ -14867,7 +14866,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>4937640</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>4937640</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>4149345</v>
       </c>
@@ -14918,7 +14917,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>4937640</v>
       </c>
@@ -14935,7 +14934,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>4149345</v>
       </c>
@@ -14952,7 +14951,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>4937640</v>
       </c>
@@ -14969,7 +14968,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>4149345</v>
       </c>
@@ -14986,7 +14985,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>4149345</v>
       </c>
@@ -15003,7 +15002,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>4937640</v>
       </c>
@@ -15020,7 +15019,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>4937640</v>
       </c>
@@ -15037,7 +15036,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>4149345</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>4149345</v>
       </c>
@@ -15071,7 +15070,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>4149345</v>
       </c>
@@ -15088,7 +15087,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>4937640</v>
       </c>
@@ -15105,7 +15104,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>4149345</v>
       </c>
@@ -15122,7 +15121,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>4937640</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>4937640</v>
       </c>
@@ -15156,7 +15155,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>4149345</v>
       </c>
@@ -15173,7 +15172,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>4937640</v>
       </c>
@@ -15207,7 +15206,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>4149345</v>
       </c>
@@ -15224,7 +15223,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>4149345</v>
       </c>
@@ -15241,7 +15240,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>4937640</v>
       </c>
@@ -15258,7 +15257,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>4149345</v>
       </c>
@@ -15275,7 +15274,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>4937640</v>
       </c>
@@ -15292,7 +15291,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>4149345</v>
       </c>
@@ -15309,7 +15308,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>4937640</v>
       </c>
@@ -15326,7 +15325,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>4149345</v>
       </c>
@@ -15343,7 +15342,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>4149345</v>
       </c>
@@ -15360,7 +15359,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>4937640</v>
       </c>
@@ -15377,7 +15376,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>4937640</v>
       </c>
@@ -15394,7 +15393,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>4937640</v>
       </c>
@@ -15411,7 +15410,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>4149345</v>
       </c>
@@ -15428,7 +15427,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>4149345</v>
       </c>
@@ -15445,7 +15444,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>4937640</v>
       </c>
@@ -15462,7 +15461,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>4149345</v>
       </c>
@@ -15479,7 +15478,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>4937640</v>
       </c>
@@ -15496,7 +15495,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>4937640</v>
       </c>
@@ -15513,7 +15512,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>4149345</v>
       </c>
@@ -15530,7 +15529,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>4149345</v>
       </c>
@@ -15547,7 +15546,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>4937640</v>
       </c>
@@ -15564,7 +15563,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>4937640</v>
       </c>
@@ -15581,7 +15580,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>4149345</v>
       </c>
@@ -15615,7 +15614,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>4937640</v>
       </c>
@@ -15649,7 +15648,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>4149345</v>
       </c>
@@ -15666,7 +15665,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>4937640</v>
       </c>
@@ -15683,7 +15682,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>4149345</v>
       </c>
@@ -15734,7 +15733,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>4937640</v>
       </c>
@@ -15751,7 +15750,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>4937640</v>
       </c>
@@ -15768,7 +15767,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>4937640</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>4149345</v>
       </c>
@@ -15802,7 +15801,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>4149345</v>
       </c>
@@ -15819,7 +15818,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>4149345</v>
       </c>
@@ -15836,7 +15835,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>4149345</v>
       </c>
@@ -15853,7 +15852,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>4937640</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>4149345</v>
       </c>
@@ -15887,7 +15886,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>4937640</v>
       </c>
@@ -15921,7 +15920,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>4937640</v>
       </c>
@@ -15938,7 +15937,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>4937640</v>
       </c>
@@ -15955,7 +15954,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>4937640</v>
       </c>
@@ -15972,7 +15971,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>4149345</v>
       </c>
@@ -15989,7 +15988,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>4149345</v>
       </c>
@@ -16006,7 +16005,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>4937640</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>4149345</v>
       </c>
@@ -16040,7 +16039,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>4937640</v>
       </c>
@@ -16057,7 +16056,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>4149345</v>
       </c>
@@ -16074,7 +16073,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>4149345</v>
       </c>
@@ -16091,7 +16090,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>4937640</v>
       </c>
@@ -16108,7 +16107,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>4937640</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>4149345</v>
       </c>
@@ -16142,7 +16141,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>4149345</v>
       </c>
@@ -16159,7 +16158,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>4149345</v>
       </c>
@@ -16176,7 +16175,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>4937640</v>
       </c>
@@ -16193,7 +16192,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>4937640</v>
       </c>
@@ -16210,7 +16209,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>4937640</v>
       </c>
@@ -16227,7 +16226,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>4149345</v>
       </c>
@@ -16244,7 +16243,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>4149345</v>
       </c>
@@ -16261,7 +16260,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>4937640</v>
       </c>
@@ -16278,7 +16277,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>4937640</v>
       </c>
@@ -16312,7 +16311,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>4149345</v>
       </c>
@@ -16329,7 +16328,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>4149345</v>
       </c>
@@ -16346,7 +16345,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>4149345</v>
       </c>
@@ -16363,7 +16362,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>4149345</v>
       </c>
@@ -16380,7 +16379,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>4937640</v>
       </c>
@@ -16397,7 +16396,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>4937640</v>
       </c>
@@ -16414,7 +16413,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>4149345</v>
       </c>
@@ -16431,7 +16430,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>4937640</v>
       </c>
@@ -16448,7 +16447,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>4149345</v>
       </c>
@@ -16465,7 +16464,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>4149345</v>
       </c>
@@ -16482,7 +16481,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>4149345</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>4149345</v>
       </c>
@@ -16516,7 +16515,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>4149345</v>
       </c>
@@ -16533,7 +16532,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>4937640</v>
       </c>
@@ -16550,7 +16549,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>4937640</v>
       </c>
@@ -16567,7 +16566,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>4149345</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>4937640</v>
       </c>
@@ -16601,7 +16600,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>4149345</v>
       </c>
@@ -16618,7 +16617,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>4149345</v>
       </c>
@@ -16635,7 +16634,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>4149345</v>
       </c>
@@ -16652,7 +16651,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>4149345</v>
       </c>
@@ -16669,7 +16668,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>4937640</v>
       </c>
@@ -16686,7 +16685,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>4937640</v>
       </c>
@@ -16703,7 +16702,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>4937640</v>
       </c>
@@ -16720,7 +16719,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>4149345</v>
       </c>
@@ -16737,7 +16736,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>4937640</v>
       </c>
@@ -16754,7 +16753,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>4149345</v>
       </c>
@@ -16771,7 +16770,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>4937640</v>
       </c>
@@ -16788,7 +16787,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>4149345</v>
       </c>
@@ -16805,7 +16804,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>4937640</v>
       </c>
@@ -16822,7 +16821,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>4937640</v>
       </c>
@@ -16839,7 +16838,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>4937640</v>
       </c>
@@ -16856,7 +16855,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>4937640</v>
       </c>
@@ -16873,7 +16872,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>4149345</v>
       </c>
@@ -16890,7 +16889,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>4937640</v>
       </c>
@@ -16907,7 +16906,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>4149345</v>
       </c>
@@ -16924,7 +16923,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>4937640</v>
       </c>
@@ -16941,7 +16940,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>4937640</v>
       </c>
@@ -16958,7 +16957,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>4149345</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>4149345</v>
       </c>
@@ -16992,7 +16991,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>4937640</v>
       </c>
@@ -17009,7 +17008,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>4937640</v>
       </c>
@@ -17043,7 +17042,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>4937640</v>
       </c>
@@ -17060,7 +17059,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>4937640</v>
       </c>
@@ -17077,7 +17076,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>4149345</v>
       </c>
@@ -17094,7 +17093,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="881" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>4937640</v>
       </c>
@@ -17111,7 +17110,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>4937640</v>
       </c>
@@ -17128,7 +17127,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>4937640</v>
       </c>
@@ -17145,7 +17144,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="884" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>4149345</v>
       </c>
@@ -17162,7 +17161,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="885" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>4149345</v>
       </c>
@@ -17196,7 +17195,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="887" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>4149345</v>
       </c>
@@ -17213,7 +17212,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>4937640</v>
       </c>
@@ -17247,7 +17246,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="890" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>4149345</v>
       </c>
@@ -17264,7 +17263,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="891" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>4149345</v>
       </c>
@@ -17281,7 +17280,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="892" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>4937640</v>
       </c>
@@ -17298,7 +17297,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>4149345</v>
       </c>
@@ -17315,7 +17314,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>4937640</v>
       </c>
@@ -17332,7 +17331,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="895" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>4149345</v>
       </c>
@@ -17349,7 +17348,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>4149345</v>
       </c>
@@ -17366,7 +17365,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>4149345</v>
       </c>
@@ -17383,7 +17382,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>4149345</v>
       </c>
@@ -17400,7 +17399,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>4937640</v>
       </c>
@@ -17417,7 +17416,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="900" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>4149345</v>
       </c>
@@ -17434,7 +17433,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>4149345</v>
       </c>
@@ -17451,7 +17450,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="902" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>4937640</v>
       </c>
@@ -17468,7 +17467,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="903" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>4149345</v>
       </c>
@@ -17485,7 +17484,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="904" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>4149345</v>
       </c>
@@ -17502,7 +17501,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="905" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>4149345</v>
       </c>
@@ -17536,7 +17535,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>4937640</v>
       </c>
@@ -17553,7 +17552,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>4937640</v>
       </c>
@@ -17570,7 +17569,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="909" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>4937640</v>
       </c>
@@ -17587,7 +17586,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="910" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>4149345</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="911" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>4149345</v>
       </c>
@@ -17621,7 +17620,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="912" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>4149345</v>
       </c>
@@ -17638,7 +17637,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="913" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>4937640</v>
       </c>
@@ -17672,7 +17671,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="915" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>4937640</v>
       </c>
@@ -17689,7 +17688,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="916" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>4149345</v>
       </c>
@@ -17706,7 +17705,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="917" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>4149345</v>
       </c>
@@ -17723,7 +17722,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>4149345</v>
       </c>
@@ -17740,7 +17739,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>4937640</v>
       </c>
@@ -17757,7 +17756,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="920" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>4937640</v>
       </c>
@@ -17774,7 +17773,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="921" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>4149345</v>
       </c>
@@ -17791,7 +17790,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="922" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>4149345</v>
       </c>
@@ -17808,7 +17807,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="923" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>4149345</v>
       </c>
@@ -17825,7 +17824,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="924" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>4149345</v>
       </c>
@@ -17842,7 +17841,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="925" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>4937640</v>
       </c>
@@ -17876,7 +17875,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="927" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>4937640</v>
       </c>
@@ -17893,7 +17892,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>4149345</v>
       </c>
@@ -17910,7 +17909,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>4937640</v>
       </c>
@@ -17927,7 +17926,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>4937640</v>
       </c>
@@ -17944,7 +17943,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>4149345</v>
       </c>
@@ -17961,7 +17960,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="932" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>4149345</v>
       </c>
@@ -17978,7 +17977,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>4149345</v>
       </c>
@@ -17995,7 +17994,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>4149345</v>
       </c>
@@ -18012,7 +18011,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="935" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>4937640</v>
       </c>
@@ -18029,7 +18028,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>4937640</v>
       </c>
@@ -18046,7 +18045,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>4149345</v>
       </c>
@@ -18080,7 +18079,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="939" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>4149345</v>
       </c>
@@ -18097,7 +18096,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="940" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>4937640</v>
       </c>
@@ -18114,7 +18113,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>4937640</v>
       </c>
@@ -18131,7 +18130,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="942" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>4937640</v>
       </c>
@@ -18148,7 +18147,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="943" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>4937640</v>
       </c>
@@ -18165,7 +18164,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="944" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>4149345</v>
       </c>
@@ -18182,7 +18181,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="945" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>4937640</v>
       </c>
@@ -18199,7 +18198,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="946" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>4937640</v>
       </c>
@@ -18216,7 +18215,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="947" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>4937640</v>
       </c>
@@ -18233,7 +18232,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="948" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>4149345</v>
       </c>
@@ -18250,7 +18249,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="949" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>4937640</v>
       </c>
@@ -18267,7 +18266,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="950" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>4149345</v>
       </c>
@@ -18284,7 +18283,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="951" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>4149345</v>
       </c>
@@ -18301,7 +18300,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="952" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>4149345</v>
       </c>
@@ -18318,7 +18317,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="953" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>4149345</v>
       </c>
@@ -18335,7 +18334,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="954" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>4937640</v>
       </c>
@@ -18352,7 +18351,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="955" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>4937640</v>
       </c>
@@ -18369,7 +18368,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="956" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>4149345</v>
       </c>
@@ -18386,7 +18385,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="957" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>4149345</v>
       </c>
@@ -18403,7 +18402,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="958" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>4149345</v>
       </c>
@@ -18437,7 +18436,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="960" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>4937640</v>
       </c>
@@ -18454,7 +18453,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>4149345</v>
       </c>
@@ -18471,7 +18470,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="962" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>4149345</v>
       </c>
@@ -18488,7 +18487,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="963" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>4149345</v>
       </c>
@@ -18505,7 +18504,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="964" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>4937640</v>
       </c>
@@ -18522,7 +18521,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="965" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>4149345</v>
       </c>
@@ -18539,7 +18538,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="966" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>4937640</v>
       </c>
@@ -18556,7 +18555,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="967" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>4149345</v>
       </c>
@@ -18573,7 +18572,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="968" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>4149345</v>
       </c>
@@ -18607,7 +18606,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="970" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>4149345</v>
       </c>
@@ -18624,7 +18623,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="971" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>4937640</v>
       </c>
@@ -18658,7 +18657,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="973" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>4937640</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="974" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>4937640</v>
       </c>
@@ -18692,7 +18691,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="975" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>4149345</v>
       </c>
@@ -18709,7 +18708,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="976" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>4937640</v>
       </c>
@@ -18726,7 +18725,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="977" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>4149345</v>
       </c>
@@ -18743,7 +18742,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="978" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>4937640</v>
       </c>
@@ -18760,7 +18759,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="979" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>4149345</v>
       </c>
@@ -18777,7 +18776,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="980" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>4937640</v>
       </c>
@@ -18794,7 +18793,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="981" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>4937640</v>
       </c>
@@ -18811,7 +18810,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="982" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>4149345</v>
       </c>
@@ -18828,7 +18827,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="983" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>4149345</v>
       </c>
@@ -18845,7 +18844,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="984" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>4937640</v>
       </c>
@@ -18862,7 +18861,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="985" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>4937640</v>
       </c>
@@ -18879,7 +18878,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="986" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>4937640</v>
       </c>
@@ -18896,7 +18895,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="987" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>4149345</v>
       </c>
@@ -18913,7 +18912,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="988" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>4937640</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>4149345</v>
       </c>
@@ -18947,7 +18946,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="990" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>4937640</v>
       </c>
@@ -18964,7 +18963,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="991" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>4149345</v>
       </c>
@@ -18981,7 +18980,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="992" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>4149345</v>
       </c>
@@ -18998,7 +18997,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="993" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>4937640</v>
       </c>
@@ -19015,7 +19014,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="994" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>4149345</v>
       </c>
@@ -19032,7 +19031,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="995" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>4937640</v>
       </c>
@@ -19049,7 +19048,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="996" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>4937640</v>
       </c>
@@ -19083,7 +19082,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="998" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>4149345</v>
       </c>
@@ -19100,7 +19099,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="999" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>4937640</v>
       </c>
@@ -19117,7 +19116,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>4937640</v>
       </c>
@@ -19135,13 +19134,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1000">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E1000"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>